--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="74">
   <si>
     <t>Doi</t>
   </si>
@@ -278,6 +278,39 @@
   </si>
   <si>
     <t>2017-08-28</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,  Philippe%Bidet%NULL%1,  Gérard%Lina%NULL%1,  Mostapha%Mokhtari%NULL%1,  Marie-Claude%André%NULL%1,  Dominique%Gendrel%NULL%1,  Edouard%Bingen%NULL%1,  Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,  Mi-Yeon%Yeon%NULL%2,  Mi-Yeon%Yeon%NULL%0,  Jung Wan%Park%NULL%2,  Jung Wan%Park%NULL%0,  Jee-Young%Hong%NULL%2,  Jee-Young%Hong%NULL%0,  Ji Woong%Son%NULL%2,  Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,  Mona%Loutfy%NULL%1,  L. Clifford%McDonald%NULL%2,  Kenneth F.%Martinez%NULL%1,  Mariana%Ofner%NULL%1,  Tom%Wong%NULL%1,  Tamara%Wallington%NULL%1,  Wayne L.%Gold%NULL%1,  Barbara%Mederski%NULL%1,  Karen%Green%NULL%3,  Donald E.%Low%NULL%1,  NULL%NULL%NULL%15]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%2,   M.A.%Weigand%null%1,   E.%Popp%null%1,  J.%Knapp%null%0,  M.A.%Weigand%null%1,  E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,  Fang%Tang%NULL%1,  Li‐Qun%Fang%NULL%1,  Sake J.%De Vlas%NULL%1,  Huai‐Jian%Ma%NULL%1,  Jie‐Ping%Zhou%NULL%1,  Caspar W. N.%Looman%NULL%1,  Jan Hendrik%Richardus%NULL%1,  Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,  Allison%McGeer%NULL%2,  Bonnie%Henry%NULL%2,  Marianna%Ofner%NULL%2,  David%Rose%NULL%1,  Tammy%Hlywka%NULL%1,  Joanne%Levie%NULL%1,  Jane%McQueen%NULL%1,  Stephanie%Smith%NULL%1,  Lorraine%Moss%NULL%1,  Andrew%Smith%NULL%1,  Karen%Green%NULL%0,  Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,  Altynay%Shigayeva%NULL%1,  Allison%McGeer%NULL%0,  Erika%Bontovics%NULL%1,  Martin%Chapman%NULL%1,  Denise%Gravel%NULL%1,  Bonnie%Henry%NULL%0,  Stephen%Lapinsky%NULL%1,  Mark%Loeb%NULL%1,  L. Clifford%McDonald%NULL%0,  Marianna%Ofner%NULL%0,  Shirley%Paton%NULL%1,  Donna%Reynolds%NULL%1,  Damon%Scales%NULL%1,  Sandy%Shen%NULL%1,  Andrew%Simor%NULL%1,  Thomas%Stewart%NULL%1,  Mary%Vearncombe%NULL%1,  Dick%Zoutman%NULL%1,  Karen%Green%NULL%0,  Joel Mark%Montgomery%NULL%4,  Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,  Jaehoon%Oh%NULL%1,  Tae Ho%Lim%NULL%1,  Hyunggoo%Kang%NULL%1,  Yeongtak%Song%NULL%1,  Sanghyun%Lee%NULL%1,  Abdelouahab%Bellou.%NULL%2,  Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -623,6 +656,9 @@
       <c r="H1" t="s">
         <v>23</v>
       </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -638,7 +674,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -648,6 +684,9 @@
       </c>
       <c r="H2" t="s">
         <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -664,7 +703,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -674,6 +713,9 @@
       </c>
       <c r="H3" t="s">
         <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -690,7 +732,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -700,6 +742,9 @@
       </c>
       <c r="H4" t="s">
         <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -727,6 +772,9 @@
       <c r="H5" t="s">
         <v>39</v>
       </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
@@ -742,7 +790,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -752,6 +800,9 @@
       </c>
       <c r="H6" t="s">
         <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -768,7 +819,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -778,6 +829,9 @@
       </c>
       <c r="H7" t="s">
         <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -794,7 +848,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -804,6 +858,9 @@
       </c>
       <c r="H8" t="s">
         <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -820,7 +877,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -830,6 +887,9 @@
       </c>
       <c r="H9" t="s">
         <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -857,6 +917,9 @@
       <c r="H10" t="s">
         <v>39</v>
       </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -872,7 +935,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>
@@ -882,6 +945,9 @@
       </c>
       <c r="H11" t="s">
         <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -908,6 +974,9 @@
       </c>
       <c r="H12" t="s">
         <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="108">
   <si>
     <t>Doi</t>
   </si>
@@ -311,6 +311,108 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,  Jaehoon%Oh%NULL%1,  Tae Ho%Lim%NULL%1,  Hyunggoo%Kang%NULL%1,  Yeongtak%Song%NULL%1,  Sanghyun%Lee%NULL%1,  Abdelouahab%Bellou.%NULL%2,  Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,   Philippe%Bidet%NULL%1,   Gérard%Lina%NULL%1,   Mostapha%Mokhtari%NULL%1,   Marie-Claude%André%NULL%1,   Dominique%Gendrel%NULL%1,   Edouard%Bingen%NULL%1,   Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,   Mi-Yeon%Yeon%NULL%0,   Mi-Yeon%Yeon%NULL%0,   Jung Wan%Park%NULL%0,   Jung Wan%Park%NULL%0,   Jee-Young%Hong%NULL%2,   Jee-Young%Hong%NULL%0,   Ji Woong%Son%NULL%2,   Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,   Mona%Loutfy%NULL%1,   L. Clifford%McDonald%NULL%2,   Kenneth F.%Martinez%NULL%1,   Mariana%Ofner%NULL%1,   Tom%Wong%NULL%1,   Tamara%Wallington%NULL%1,   Wayne L.%Gold%NULL%1,   Barbara%Mederski%NULL%1,   Karen%Green%NULL%3,   Donald E.%Low%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,    M.A.%Weigand%null%1,    E.%Popp%null%1,   J.%Knapp%null%1,   M.A.%Weigand%null%1,   E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,   Fang%Tang%NULL%1,   Li‐Qun%Fang%NULL%1,   Sake J.%De Vlas%NULL%1,   Huai‐Jian%Ma%NULL%1,   Jie‐Ping%Zhou%NULL%1,   Caspar W. N.%Looman%NULL%1,   Jan Hendrik%Richardus%NULL%1,   Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,   Allison%McGeer%NULL%2,   Bonnie%Henry%NULL%2,   Marianna%Ofner%NULL%2,   David%Rose%NULL%1,   Tammy%Hlywka%NULL%1,   Joanne%Levie%NULL%1,   Jane%McQueen%NULL%1,   Stephanie%Smith%NULL%1,   Lorraine%Moss%NULL%1,   Andrew%Smith%NULL%1,   Karen%Green%NULL%0,   Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,   Altynay%Shigayeva%NULL%1,   Allison%McGeer%NULL%0,   Erika%Bontovics%NULL%1,   Martin%Chapman%NULL%1,   Denise%Gravel%NULL%1,   Bonnie%Henry%NULL%0,   Stephen%Lapinsky%NULL%1,   Mark%Loeb%NULL%1,   L. Clifford%McDonald%NULL%0,   Marianna%Ofner%NULL%0,   Shirley%Paton%NULL%1,   Donna%Reynolds%NULL%1,   Damon%Scales%NULL%1,   Sandy%Shen%NULL%1,   Andrew%Simor%NULL%1,   Thomas%Stewart%NULL%1,   Mary%Vearncombe%NULL%1,   Dick%Zoutman%NULL%1,   Karen%Green%NULL%0,   Joel Mark%Montgomery%NULL%4,   Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,   Jaehoon%Oh%NULL%1,   Tae Ho%Lim%NULL%1,   Hyunggoo%Kang%NULL%1,   Yeongtak%Song%NULL%1,   Sanghyun%Lee%NULL%1,   Abdelouahab%Bellou.%NULL%2,   Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>The \u201cdelay effect\u201d of donning a gown during cardiopulmonary resuscitation in a simulation model</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,    Philippe%Bidet%NULL%1,    Gérard%Lina%NULL%1,    Mostapha%Mokhtari%NULL%1,    Marie-Claude%André%NULL%1,    Dominique%Gendrel%NULL%1,    Edouard%Bingen%NULL%1,    Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,    Mi-Yeon%Yeon%NULL%0,    Mi-Yeon%Yeon%NULL%0,    Jung Wan%Park%NULL%0,    Jung Wan%Park%NULL%0,    Jee-Young%Hong%NULL%2,    Jee-Young%Hong%NULL%0,    Ji Woong%Son%NULL%2,    Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,    Mona%Loutfy%NULL%1,    L. Clifford%McDonald%NULL%2,    Kenneth F.%Martinez%NULL%1,    Mariana%Ofner%NULL%1,    Tom%Wong%NULL%1,    Tamara%Wallington%NULL%1,    Wayne L.%Gold%NULL%1,    Barbara%Mederski%NULL%1,    Karen%Green%NULL%3,    Donald E.%Low%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,     M.A.%Weigand%null%1,     E.%Popp%null%1,    J.%Knapp%null%1,    M.A.%Weigand%null%1,    E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,    Fang%Tang%NULL%1,    Li‐Qun%Fang%NULL%1,    Sake J.%De Vlas%NULL%1,    Huai‐Jian%Ma%NULL%1,    Jie‐Ping%Zhou%NULL%1,    Caspar W. N.%Looman%NULL%1,    Jan Hendrik%Richardus%NULL%1,    Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,    Allison%McGeer%NULL%2,    Bonnie%Henry%NULL%2,    Marianna%Ofner%NULL%2,    David%Rose%NULL%1,    Tammy%Hlywka%NULL%1,    Joanne%Levie%NULL%1,    Jane%McQueen%NULL%1,    Stephanie%Smith%NULL%1,    Lorraine%Moss%NULL%1,    Andrew%Smith%NULL%1,    Karen%Green%NULL%0,    Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,    Altynay%Shigayeva%NULL%1,    Allison%McGeer%NULL%0,    Erika%Bontovics%NULL%1,    Martin%Chapman%NULL%1,    Denise%Gravel%NULL%1,    Bonnie%Henry%NULL%0,    Stephen%Lapinsky%NULL%1,    Mark%Loeb%NULL%1,    L. Clifford%McDonald%NULL%0,    Marianna%Ofner%NULL%0,    Shirley%Paton%NULL%1,    Donna%Reynolds%NULL%1,    Damon%Scales%NULL%1,    Sandy%Shen%NULL%1,    Andrew%Simor%NULL%1,    Thomas%Stewart%NULL%1,    Mary%Vearncombe%NULL%1,    Dick%Zoutman%NULL%1,    Karen%Green%NULL%0,    Joel Mark%Montgomery%NULL%4,    Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,    Jaehoon%Oh%NULL%1,    Tae Ho%Lim%NULL%1,    Hyunggoo%Kang%NULL%1,    Yeongtak%Song%NULL%1,    Sanghyun%Lee%NULL%1,    Abdelouahab%Bellou.%NULL%2,    Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,     Philippe%Bidet%NULL%1,     Gérard%Lina%NULL%1,     Mostapha%Mokhtari%NULL%1,     Marie-Claude%André%NULL%1,     Dominique%Gendrel%NULL%1,     Edouard%Bingen%NULL%1,     Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,     Mi-Yeon%Yeon%NULL%0,     Mi-Yeon%Yeon%NULL%0,     Jung Wan%Park%NULL%0,     Jung Wan%Park%NULL%0,     Jee-Young%Hong%NULL%2,     Jee-Young%Hong%NULL%0,     Ji Woong%Son%NULL%2,     Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,     Mona%Loutfy%NULL%1,     L. Clifford%McDonald%NULL%2,     Kenneth F.%Martinez%NULL%1,     Mariana%Ofner%NULL%1,     Tom%Wong%NULL%1,     Tamara%Wallington%NULL%1,     Wayne L.%Gold%NULL%1,     Barbara%Mederski%NULL%1,     Karen%Green%NULL%3,     Donald E.%Low%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,      M.A.%Weigand%null%1,      E.%Popp%null%1,     J.%Knapp%null%1,     M.A.%Weigand%null%1,     E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,     Fang%Tang%NULL%1,     Li‐Qun%Fang%NULL%1,     Sake J.%De Vlas%NULL%1,     Huai‐Jian%Ma%NULL%1,     Jie‐Ping%Zhou%NULL%1,     Caspar W. N.%Looman%NULL%1,     Jan Hendrik%Richardus%NULL%1,     Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,     Allison%McGeer%NULL%2,     Bonnie%Henry%NULL%2,     Marianna%Ofner%NULL%2,     David%Rose%NULL%1,     Tammy%Hlywka%NULL%1,     Joanne%Levie%NULL%1,     Jane%McQueen%NULL%1,     Stephanie%Smith%NULL%1,     Lorraine%Moss%NULL%1,     Andrew%Smith%NULL%1,     Karen%Green%NULL%0,     Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,     Altynay%Shigayeva%NULL%1,     Allison%McGeer%NULL%0,     Erika%Bontovics%NULL%1,     Martin%Chapman%NULL%1,     Denise%Gravel%NULL%1,     Bonnie%Henry%NULL%0,     Stephen%Lapinsky%NULL%1,     Mark%Loeb%NULL%1,     L. Clifford%McDonald%NULL%0,     Marianna%Ofner%NULL%0,     Shirley%Paton%NULL%1,     Donna%Reynolds%NULL%1,     Damon%Scales%NULL%1,     Sandy%Shen%NULL%1,     Andrew%Simor%NULL%1,     Thomas%Stewart%NULL%1,     Mary%Vearncombe%NULL%1,     Dick%Zoutman%NULL%1,     Karen%Green%NULL%0,     Joel Mark%Montgomery%NULL%4,     Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,     Jaehoon%Oh%NULL%1,     Tae Ho%Lim%NULL%1,     Hyunggoo%Kang%NULL%1,     Yeongtak%Song%NULL%1,     Sanghyun%Lee%NULL%1,     Abdelouahab%Bellou.%NULL%2,     Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,      Philippe%Bidet%NULL%1,      Gérard%Lina%NULL%1,      Mostapha%Mokhtari%NULL%1,      Marie-Claude%André%NULL%1,      Dominique%Gendrel%NULL%1,      Edouard%Bingen%NULL%1,      Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,      Mi-Yeon%Yeon%NULL%0,      Mi-Yeon%Yeon%NULL%0,      Jung Wan%Park%NULL%0,      Jung Wan%Park%NULL%0,      Jee-Young%Hong%NULL%2,      Jee-Young%Hong%NULL%0,      Ji Woong%Son%NULL%2,      Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,      Mona%Loutfy%NULL%1,      L. Clifford%McDonald%NULL%2,      Kenneth F.%Martinez%NULL%1,      Mariana%Ofner%NULL%1,      Tom%Wong%NULL%1,      Tamara%Wallington%NULL%1,      Wayne L.%Gold%NULL%1,      Barbara%Mederski%NULL%1,      Karen%Green%NULL%3,      Donald E.%Low%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,       M.A.%Weigand%null%1,       E.%Popp%null%1,      J.%Knapp%null%1,      M.A.%Weigand%null%1,      E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,      Fang%Tang%NULL%1,      Li‐Qun%Fang%NULL%1,      Sake J.%De Vlas%NULL%1,      Huai‐Jian%Ma%NULL%1,      Jie‐Ping%Zhou%NULL%1,      Caspar W. N.%Looman%NULL%1,      Jan Hendrik%Richardus%NULL%1,      Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,      Allison%McGeer%NULL%2,      Bonnie%Henry%NULL%2,      Marianna%Ofner%NULL%2,      David%Rose%NULL%1,      Tammy%Hlywka%NULL%1,      Joanne%Levie%NULL%1,      Jane%McQueen%NULL%1,      Stephanie%Smith%NULL%1,      Lorraine%Moss%NULL%1,      Andrew%Smith%NULL%1,      Karen%Green%NULL%0,      Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,      Altynay%Shigayeva%NULL%1,      Allison%McGeer%NULL%0,      Erika%Bontovics%NULL%1,      Martin%Chapman%NULL%1,      Denise%Gravel%NULL%1,      Bonnie%Henry%NULL%0,      Stephen%Lapinsky%NULL%1,      Mark%Loeb%NULL%1,      L. Clifford%McDonald%NULL%0,      Marianna%Ofner%NULL%0,      Shirley%Paton%NULL%1,      Donna%Reynolds%NULL%1,      Damon%Scales%NULL%1,      Sandy%Shen%NULL%1,      Andrew%Simor%NULL%1,      Thomas%Stewart%NULL%1,      Mary%Vearncombe%NULL%1,      Dick%Zoutman%NULL%1,      Karen%Green%NULL%0,      Joel Mark%Montgomery%NULL%4,      Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,      Jaehoon%Oh%NULL%1,      Tae Ho%Lim%NULL%1,      Hyunggoo%Kang%NULL%1,      Yeongtak%Song%NULL%1,      Sanghyun%Lee%NULL%1,      Abdelouahab%Bellou.%NULL%2,      Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -674,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -703,7 +805,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -732,7 +834,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -790,7 +892,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -819,7 +921,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -848,7 +950,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -877,7 +979,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -935,7 +1037,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>
@@ -958,7 +1060,7 @@
         <v>39630.0</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -967,10 +1069,10 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>

--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="134">
   <si>
     <t>Doi</t>
   </si>
@@ -413,6 +413,99 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,      Jaehoon%Oh%NULL%1,      Tae Ho%Lim%NULL%1,      Hyunggoo%Kang%NULL%1,      Yeongtak%Song%NULL%1,      Sanghyun%Lee%NULL%1,      Abdelouahab%Bellou.%NULL%2,      Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,       Philippe%Bidet%NULL%1,       Gérard%Lina%NULL%1,       Mostapha%Mokhtari%NULL%1,       Marie-Claude%André%NULL%1,       Dominique%Gendrel%NULL%1,       Edouard%Bingen%NULL%1,       Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,       Mi-Yeon%Yeon%NULL%0,       Mi-Yeon%Yeon%NULL%0,       Jung Wan%Park%NULL%0,       Jung Wan%Park%NULL%0,       Jee-Young%Hong%NULL%2,       Jee-Young%Hong%NULL%0,       Ji Woong%Son%NULL%2,       Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,       Mona%Loutfy%NULL%1,       L. Clifford%McDonald%NULL%2,       Kenneth F.%Martinez%NULL%1,       Mariana%Ofner%NULL%1,       Tom%Wong%NULL%1,       Tamara%Wallington%NULL%1,       Wayne L.%Gold%NULL%1,       Barbara%Mederski%NULL%1,       Karen%Green%NULL%3,       Donald E.%Low%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Nosocomial Transmission of Severe Fever With Thrombocytopenia Syndrome in Korea"</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1, W.%Choi%xref no email%1, S.-W.%Park%xref no email%1, E. B.%Wang%xref no email%1, W.-J.%Lee%xref no email%1, Y.%Jee%xref no email%1, K. S.%Lim%xref no email%1, H.-J.%Lee%xref no email%1, S.-M.%Kim%xref no email%1, S.-O.%Lee%xref no email%1, S.-H.%Choi%xref no email%1, Y. S.%Kim%xref no email%1, J. H.%Woo%xref no email%1, S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-04-27</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,        M.A.%Weigand%null%1,        E.%Popp%null%1,       J.%Knapp%null%1,       M.A.%Weigand%null%1,       E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,       Fang%Tang%NULL%1,       Li‐Qun%Fang%NULL%1,       Sake J.%De Vlas%NULL%1,       Huai‐Jian%Ma%NULL%1,       Jie‐Ping%Zhou%NULL%1,       Caspar W. N.%Looman%NULL%1,       Jan Hendrik%Richardus%NULL%1,       Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,       Allison%McGeer%NULL%2,       Bonnie%Henry%NULL%2,       Marianna%Ofner%NULL%2,       David%Rose%NULL%1,       Tammy%Hlywka%NULL%1,       Joanne%Levie%NULL%1,       Jane%McQueen%NULL%1,       Stephanie%Smith%NULL%1,       Lorraine%Moss%NULL%1,       Andrew%Smith%NULL%1,       Karen%Green%NULL%0,       Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,       Altynay%Shigayeva%NULL%1,       Allison%McGeer%NULL%0,       Erika%Bontovics%NULL%1,       Martin%Chapman%NULL%1,       Denise%Gravel%NULL%1,       Bonnie%Henry%NULL%0,       Stephen%Lapinsky%NULL%1,       Mark%Loeb%NULL%1,       L. Clifford%McDonald%NULL%0,       Marianna%Ofner%NULL%0,       Shirley%Paton%NULL%1,       Donna%Reynolds%NULL%1,       Damon%Scales%NULL%1,       Sandy%Shen%NULL%1,       Andrew%Simor%NULL%1,       Thomas%Stewart%NULL%1,       Mary%Vearncombe%NULL%1,       Dick%Zoutman%NULL%1,       Karen%Green%NULL%0,       Joel Mark%Montgomery%NULL%4,       Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Respiratory Protection During Simulated Emergency Pediatric Life Support: A Randomized, Controlled, Crossover Study"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"AbstractIntroductionEmergency pediatric life support (EPLS) of children infected with transmissible respiratory diseases requires adequate respiratory protection for medical first responders.
+ Conventional air-purifying respirators (APR) and modern loose-fitting powered air-purifying respirator-hoods (PAPR-hood) may have a different impact during pediatric resuscitation and therefore require evaluation.
+ObjectiveThis study investigated the influence of APRs and PAPR-hoods during simulated pediatric cardiopulmonary resuscitation.
+MethodsStudy design was a randomized, controlled, crossover study.
+ Sixteen paramedics carried out a standardized EPLS scenario inside an ambulance, either unprotected (control) or wearing a conventional APR or a PAPR-hood.
+ Treatment times and wearer comfort were determined and compared.
+ResultsAll paramedics completed the treatment objectives of the study arms without adverse events.
+ Study subjects reported that communication, dexterity and mobility were significantly better in the APR group, whereas the heat-build-up was significantly less in the PAPR-hood group.
+ Treatment times compared to the control group did not significantly differ for the APR group but did with the PAPR-hood group (261\u00b112 seconds for the controls, 275\u00b19 seconds for the conventional APR and 286\u00b113 seconds for the PAPR-hood group, P &amp;lt; .
+05.ConclusionsAPRs showed a trend to better treatment times compared to PAPR-hoods during simulated pediatric cardiopulmonary resuscitation.
+ Study participants rated mobility, ease of communication and dexterity with the tight-fitting APR system significantly better compared to the loose-fitting PAPR-hood.
+SchumacherJ, GraySA, MichelS, AlcockR, BrinkerA.
+ Respiratory protection during simulated emergency pediatric life support: a randomized, controlled, crossover study.
+ Prehosp Disaster Med.
+ 2013;28(1):1-6.
+</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1, Stuart A.%Gray%xref no email%1, Sophie%Michel%xref no email%1, Roger%Alcock%xref no email%1, Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,       Jaehoon%Oh%NULL%1,       Tae Ho%Lim%NULL%1,       Hyunggoo%Kang%NULL%1,       Yeongtak%Song%NULL%1,       Sanghyun%Lee%NULL%1,       Abdelouahab%Bellou.%NULL%2,       Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,        Philippe%Bidet%NULL%1,        Gérard%Lina%NULL%1,        Mostapha%Mokhtari%NULL%1,        Marie-Claude%André%NULL%1,        Dominique%Gendrel%NULL%1,        Edouard%Bingen%NULL%1,        Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,        Mi-Yeon%Yeon%NULL%0,        Mi-Yeon%Yeon%NULL%0,        Jung Wan%Park%NULL%0,        Jung Wan%Park%NULL%0,        Jee-Young%Hong%NULL%2,        Jee-Young%Hong%NULL%0,        Ji Woong%Son%NULL%2,        Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,        Mona%Loutfy%NULL%1,        L. Clifford%McDonald%NULL%2,        Kenneth F.%Martinez%NULL%1,        Mariana%Ofner%NULL%1,        Tom%Wong%NULL%1,        Tamara%Wallington%NULL%1,        Wayne L.%Gold%NULL%1,        Barbara%Mederski%NULL%1,        Karen%Green%NULL%3,        Donald E.%Low%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1,  W.%Choi%xref no email%1,  S.-W.%Park%xref no email%1,  E. B.%Wang%xref no email%1,  W.-J.%Lee%xref no email%1,  Y.%Jee%xref no email%1,  K. S.%Lim%xref no email%1,  H.-J.%Lee%xref no email%1,  S.-M.%Kim%xref no email%1,  S.-O.%Lee%xref no email%1,  S.-H.%Choi%xref no email%1,  Y. S.%Kim%xref no email%1,  J. H.%Woo%xref no email%1,  S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,         M.A.%Weigand%null%1,         E.%Popp%null%1,        J.%Knapp%null%1,        M.A.%Weigand%null%1,        E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,        Fang%Tang%NULL%1,        Li‐Qun%Fang%NULL%1,        Sake J.%De Vlas%NULL%1,        Huai‐Jian%Ma%NULL%1,        Jie‐Ping%Zhou%NULL%1,        Caspar W. N.%Looman%NULL%1,        Jan Hendrik%Richardus%NULL%1,        Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,        Allison%McGeer%NULL%2,        Bonnie%Henry%NULL%2,        Marianna%Ofner%NULL%2,        David%Rose%NULL%1,        Tammy%Hlywka%NULL%1,        Joanne%Levie%NULL%1,        Jane%McQueen%NULL%1,        Stephanie%Smith%NULL%1,        Lorraine%Moss%NULL%1,        Andrew%Smith%NULL%1,        Karen%Green%NULL%0,        Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,        Altynay%Shigayeva%NULL%1,        Allison%McGeer%NULL%0,        Erika%Bontovics%NULL%1,        Martin%Chapman%NULL%1,        Denise%Gravel%NULL%1,        Bonnie%Henry%NULL%0,        Stephen%Lapinsky%NULL%1,        Mark%Loeb%NULL%1,        L. Clifford%McDonald%NULL%0,        Marianna%Ofner%NULL%0,        Shirley%Paton%NULL%1,        Donna%Reynolds%NULL%1,        Damon%Scales%NULL%1,        Sandy%Shen%NULL%1,        Andrew%Simor%NULL%1,        Thomas%Stewart%NULL%1,        Mary%Vearncombe%NULL%1,        Dick%Zoutman%NULL%1,        Karen%Green%NULL%0,        Joel Mark%Montgomery%NULL%4,        Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1,  Stuart A.%Gray%xref no email%1,  Sophie%Michel%xref no email%1,  Roger%Alcock%xref no email%1,  Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,        Jaehoon%Oh%NULL%1,        Tae Ho%Lim%NULL%1,        Hyunggoo%Kang%NULL%1,        Yeongtak%Song%NULL%1,        Sanghyun%Lee%NULL%1,        Abdelouahab%Bellou.%NULL%2,        Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -776,7 +869,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -805,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -834,7 +927,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -857,22 +950,22 @@
         <v>42156.0</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
         <v>68</v>
@@ -892,7 +985,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -921,7 +1014,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -950,7 +1043,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -979,7 +1072,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1002,22 +1095,22 @@
         <v>41306.0</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="I10" t="s">
         <v>68</v>
@@ -1037,7 +1130,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>

--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="155">
   <si>
     <t>Doi</t>
   </si>
@@ -506,6 +506,75 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,        Jaehoon%Oh%NULL%1,        Tae Ho%Lim%NULL%1,        Hyunggoo%Kang%NULL%1,        Yeongtak%Song%NULL%1,        Sanghyun%Lee%NULL%1,        Abdelouahab%Bellou.%NULL%2,        Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,         Philippe%Bidet%NULL%1,         Gérard%Lina%NULL%1,         Mostapha%Mokhtari%NULL%1,         Marie-Claude%André%NULL%1,         Dominique%Gendrel%NULL%1,         Edouard%Bingen%NULL%1,         Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,         Mi-Yeon%Yeon%NULL%0,         Mi-Yeon%Yeon%NULL%0,         Jung Wan%Park%NULL%0,         Jung Wan%Park%NULL%0,         Jee-Young%Hong%NULL%2,         Jee-Young%Hong%NULL%0,         Ji Woong%Son%NULL%2,         Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,         Mona%Loutfy%NULL%1,         L. Clifford%McDonald%NULL%2,         Kenneth F.%Martinez%NULL%1,         Mariana%Ofner%NULL%1,         Tom%Wong%NULL%1,         Tamara%Wallington%NULL%1,         Wayne L.%Gold%NULL%1,         Barbara%Mederski%NULL%1,         Karen%Green%NULL%3,         Donald E.%Low%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1,   W.%Choi%xref no email%1,   S.-W.%Park%xref no email%1,   E. B.%Wang%xref no email%1,   W.-J.%Lee%xref no email%1,   Y.%Jee%xref no email%1,   K. S.%Lim%xref no email%1,   H.-J.%Lee%xref no email%1,   S.-M.%Kim%xref no email%1,   S.-O.%Lee%xref no email%1,   S.-H.%Choi%xref no email%1,   Y. S.%Kim%xref no email%1,   J. H.%Woo%xref no email%1,   S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,          M.A.%Weigand%null%1,          E.%Popp%null%1,         J.%Knapp%null%1,         M.A.%Weigand%null%1,         E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,         Fang%Tang%NULL%1,         Li‐Qun%Fang%NULL%1,         Sake J.%De Vlas%NULL%1,         Huai‐Jian%Ma%NULL%1,         Jie‐Ping%Zhou%NULL%1,         Caspar W. N.%Looman%NULL%1,         Jan Hendrik%Richardus%NULL%1,         Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,         Allison%McGeer%NULL%2,         Bonnie%Henry%NULL%2,         Marianna%Ofner%NULL%2,         David%Rose%NULL%1,         Tammy%Hlywka%NULL%1,         Joanne%Levie%NULL%1,         Jane%McQueen%NULL%1,         Stephanie%Smith%NULL%1,         Lorraine%Moss%NULL%1,         Andrew%Smith%NULL%1,         Karen%Green%NULL%0,         Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,         Altynay%Shigayeva%NULL%1,         Allison%McGeer%NULL%0,         Erika%Bontovics%NULL%1,         Martin%Chapman%NULL%1,         Denise%Gravel%NULL%1,         Bonnie%Henry%NULL%0,         Stephen%Lapinsky%NULL%1,         Mark%Loeb%NULL%1,         L. Clifford%McDonald%NULL%0,         Marianna%Ofner%NULL%0,         Shirley%Paton%NULL%1,         Donna%Reynolds%NULL%1,         Damon%Scales%NULL%1,         Sandy%Shen%NULL%1,         Andrew%Simor%NULL%1,         Thomas%Stewart%NULL%1,         Mary%Vearncombe%NULL%1,         Dick%Zoutman%NULL%1,         Karen%Green%NULL%0,         Joel Mark%Montgomery%NULL%4,         Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1,   Stuart A.%Gray%xref no email%1,   Sophie%Michel%xref no email%1,   Roger%Alcock%xref no email%1,   Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,         Jaehoon%Oh%NULL%1,         Tae Ho%Lim%NULL%1,         Hyunggoo%Kang%NULL%1,         Yeongtak%Song%NULL%1,         Sanghyun%Lee%NULL%1,         Abdelouahab%Bellou.%NULL%2,         Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,          Philippe%Bidet%NULL%1,          Gérard%Lina%NULL%1,          Mostapha%Mokhtari%NULL%1,          Marie-Claude%André%NULL%1,          Dominique%Gendrel%NULL%1,          Edouard%Bingen%NULL%1,          Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,          Mi-Yeon%Yeon%NULL%0,          Mi-Yeon%Yeon%NULL%0,          Jung Wan%Park%NULL%0,          Jung Wan%Park%NULL%0,          Jee-Young%Hong%NULL%2,          Jee-Young%Hong%NULL%0,          Ji Woong%Son%NULL%2,          Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,          Mona%Loutfy%NULL%1,          L. Clifford%McDonald%NULL%2,          Kenneth F.%Martinez%NULL%1,          Mariana%Ofner%NULL%1,          Tom%Wong%NULL%1,          Tamara%Wallington%NULL%1,          Wayne L.%Gold%NULL%1,          Barbara%Mederski%NULL%1,          Karen%Green%NULL%3,          Donald E.%Low%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1,    W.%Choi%xref no email%1,    S.-W.%Park%xref no email%1,    E. B.%Wang%xref no email%1,    W.-J.%Lee%xref no email%1,    Y.%Jee%xref no email%1,    K. S.%Lim%xref no email%1,    H.-J.%Lee%xref no email%1,    S.-M.%Kim%xref no email%1,    S.-O.%Lee%xref no email%1,    S.-H.%Choi%xref no email%1,    Y. S.%Kim%xref no email%1,    J. H.%Woo%xref no email%1,    S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Background
+In prehospital emergency medicine, the use of disposable resuscitators largely prevails.
+ Therefore, there is often no need for breathing system filters.
+Objective
+In the following case report, the transmission of tuberculosis infection from a patient who required resuscitation to the emergency physician is described and a possible association with not using a breathing system filter is discussed.
+</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%0,  M.A.%Weigand%null%1,  E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,          Fang%Tang%NULL%1,          Li‐Qun%Fang%NULL%1,          Sake J.%De Vlas%NULL%1,          Huai‐Jian%Ma%NULL%1,          Jie‐Ping%Zhou%NULL%1,          Caspar W. N.%Looman%NULL%1,          Jan Hendrik%Richardus%NULL%1,          Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,          Allison%McGeer%NULL%2,          Bonnie%Henry%NULL%2,          Marianna%Ofner%NULL%2,          David%Rose%NULL%1,          Tammy%Hlywka%NULL%1,          Joanne%Levie%NULL%1,          Jane%McQueen%NULL%1,          Stephanie%Smith%NULL%1,          Lorraine%Moss%NULL%1,          Andrew%Smith%NULL%1,          Karen%Green%NULL%0,          Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,          Altynay%Shigayeva%NULL%1,          Allison%McGeer%NULL%0,          Erika%Bontovics%NULL%1,          Martin%Chapman%NULL%1,          Denise%Gravel%NULL%1,          Bonnie%Henry%NULL%0,          Stephen%Lapinsky%NULL%1,          Mark%Loeb%NULL%1,          L. Clifford%McDonald%NULL%0,          Marianna%Ofner%NULL%0,          Shirley%Paton%NULL%1,          Donna%Reynolds%NULL%1,          Damon%Scales%NULL%1,          Sandy%Shen%NULL%1,          Andrew%Simor%NULL%1,          Thomas%Stewart%NULL%1,          Mary%Vearncombe%NULL%1,          Dick%Zoutman%NULL%1,          Karen%Green%NULL%0,          Joel Mark%Montgomery%NULL%4,          Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1,    Stuart A.%Gray%xref no email%1,    Sophie%Michel%xref no email%1,    Roger%Alcock%xref no email%1,    Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,          Jaehoon%Oh%NULL%1,          Tae Ho%Lim%NULL%1,          Hyunggoo%Kang%NULL%1,          Yeongtak%Song%NULL%1,          Sanghyun%Lee%NULL%1,          Abdelouahab%Bellou.%NULL%2,          Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -869,7 +938,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -898,7 +967,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -927,7 +996,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -956,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -982,10 +1051,10 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1014,7 +1083,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1043,7 +1112,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1072,7 +1141,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1101,7 +1170,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1130,7 +1199,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>

--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="175">
   <si>
     <t>Doi</t>
   </si>
@@ -575,6 +575,66 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,          Jaehoon%Oh%NULL%1,          Tae Ho%Lim%NULL%1,          Hyunggoo%Kang%NULL%1,          Yeongtak%Song%NULL%1,          Sanghyun%Lee%NULL%1,          Abdelouahab%Bellou.%NULL%2,          Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,           Philippe%Bidet%NULL%1,           Gérard%Lina%NULL%1,           Mostapha%Mokhtari%NULL%1,           Marie-Claude%André%NULL%1,           Dominique%Gendrel%NULL%1,           Edouard%Bingen%NULL%1,           Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,           Mi-Yeon%Yeon%NULL%0,           Mi-Yeon%Yeon%NULL%0,           Jung Wan%Park%NULL%0,           Jung Wan%Park%NULL%0,           Jee-Young%Hong%NULL%2,           Jee-Young%Hong%NULL%0,           Ji Woong%Son%NULL%2,           Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,           Mona%Loutfy%NULL%1,           L. Clifford%McDonald%NULL%2,           Kenneth F.%Martinez%NULL%1,           Mariana%Ofner%NULL%1,           Tom%Wong%NULL%1,           Tamara%Wallington%NULL%1,           Wayne L.%Gold%NULL%1,           Barbara%Mederski%NULL%1,           Karen%Green%NULL%3,           Donald E.%Low%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1,     W.%Choi%xref no email%1,     S.-W.%Park%xref no email%1,     E. B.%Wang%xref no email%1,     W.-J.%Lee%xref no email%1,     Y.%Jee%xref no email%1,     K. S.%Lim%xref no email%1,     H.-J.%Lee%xref no email%1,     S.-M.%Kim%xref no email%1,     S.-O.%Lee%xref no email%1,     S.-H.%Choi%xref no email%1,     Y. S.%Kim%xref no email%1,     J. H.%Woo%xref no email%1,     S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,   M.A.%Weigand%null%1,   E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,           Fang%Tang%NULL%1,           Li‐Qun%Fang%NULL%1,           Sake J.%De Vlas%NULL%1,           Huai‐Jian%Ma%NULL%1,           Jie‐Ping%Zhou%NULL%1,           Caspar W. N.%Looman%NULL%1,           Jan Hendrik%Richardus%NULL%1,           Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,           Allison%McGeer%NULL%2,           Bonnie%Henry%NULL%2,           Marianna%Ofner%NULL%2,           David%Rose%NULL%1,           Tammy%Hlywka%NULL%1,           Joanne%Levie%NULL%1,           Jane%McQueen%NULL%1,           Stephanie%Smith%NULL%1,           Lorraine%Moss%NULL%1,           Andrew%Smith%NULL%1,           Karen%Green%NULL%0,           Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,           Altynay%Shigayeva%NULL%1,           Allison%McGeer%NULL%0,           Erika%Bontovics%NULL%1,           Martin%Chapman%NULL%1,           Denise%Gravel%NULL%1,           Bonnie%Henry%NULL%0,           Stephen%Lapinsky%NULL%1,           Mark%Loeb%NULL%1,           L. Clifford%McDonald%NULL%0,           Marianna%Ofner%NULL%0,           Shirley%Paton%NULL%1,           Donna%Reynolds%NULL%1,           Damon%Scales%NULL%1,           Sandy%Shen%NULL%1,           Andrew%Simor%NULL%1,           Thomas%Stewart%NULL%1,           Mary%Vearncombe%NULL%1,           Dick%Zoutman%NULL%1,           Karen%Green%NULL%0,           Joel Mark%Montgomery%NULL%4,           Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1,     Stuart A.%Gray%xref no email%1,     Sophie%Michel%xref no email%1,     Roger%Alcock%xref no email%1,     Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,           Jaehoon%Oh%NULL%1,           Tae Ho%Lim%NULL%1,           Hyunggoo%Kang%NULL%1,           Yeongtak%Song%NULL%1,           Sanghyun%Lee%NULL%1,           Abdelouahab%Bellou.%NULL%2,           Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,            Philippe%Bidet%NULL%1,            Gérard%Lina%NULL%1,            Mostapha%Mokhtari%NULL%1,            Marie-Claude%André%NULL%1,            Dominique%Gendrel%NULL%1,            Edouard%Bingen%NULL%1,            Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,            Mi-Yeon%Yeon%NULL%0,            Mi-Yeon%Yeon%NULL%0,            Jung Wan%Park%NULL%0,            Jung Wan%Park%NULL%0,            Jee-Young%Hong%NULL%2,            Jee-Young%Hong%NULL%0,            Ji Woong%Son%NULL%2,            Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,            Mona%Loutfy%NULL%1,            L. Clifford%McDonald%NULL%2,            Kenneth F.%Martinez%NULL%1,            Mariana%Ofner%NULL%1,            Tom%Wong%NULL%1,            Tamara%Wallington%NULL%1,            Wayne L.%Gold%NULL%1,            Barbara%Mederski%NULL%1,            Karen%Green%NULL%3,            Donald E.%Low%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1,      W.%Choi%xref no email%1,      S.-W.%Park%xref no email%1,      E. B.%Wang%xref no email%1,      W.-J.%Lee%xref no email%1,      Y.%Jee%xref no email%1,      K. S.%Lim%xref no email%1,      H.-J.%Lee%xref no email%1,      S.-M.%Kim%xref no email%1,      S.-O.%Lee%xref no email%1,      S.-H.%Choi%xref no email%1,      Y. S.%Kim%xref no email%1,      J. H.%Woo%xref no email%1,      S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,    M.A.%Weigand%null%1,    E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,            Fang%Tang%NULL%1,            Li‐Qun%Fang%NULL%1,            Sake J.%De Vlas%NULL%1,            Huai‐Jian%Ma%NULL%1,            Jie‐Ping%Zhou%NULL%1,            Caspar W. N.%Looman%NULL%1,            Jan Hendrik%Richardus%NULL%1,            Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,            Allison%McGeer%NULL%2,            Bonnie%Henry%NULL%2,            Marianna%Ofner%NULL%2,            David%Rose%NULL%1,            Tammy%Hlywka%NULL%1,            Joanne%Levie%NULL%1,            Jane%McQueen%NULL%1,            Stephanie%Smith%NULL%1,            Lorraine%Moss%NULL%1,            Andrew%Smith%NULL%1,            Karen%Green%NULL%0,            Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,            Altynay%Shigayeva%NULL%1,            Allison%McGeer%NULL%0,            Erika%Bontovics%NULL%1,            Martin%Chapman%NULL%1,            Denise%Gravel%NULL%1,            Bonnie%Henry%NULL%0,            Stephen%Lapinsky%NULL%1,            Mark%Loeb%NULL%1,            L. Clifford%McDonald%NULL%0,            Marianna%Ofner%NULL%0,            Shirley%Paton%NULL%1,            Donna%Reynolds%NULL%1,            Damon%Scales%NULL%1,            Sandy%Shen%NULL%1,            Andrew%Simor%NULL%1,            Thomas%Stewart%NULL%1,            Mary%Vearncombe%NULL%1,            Dick%Zoutman%NULL%1,            Karen%Green%NULL%0,            Joel Mark%Montgomery%NULL%4,            Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1,      Stuart A.%Gray%xref no email%1,      Sophie%Michel%xref no email%1,      Roger%Alcock%xref no email%1,      Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,            Jaehoon%Oh%NULL%1,            Tae Ho%Lim%NULL%1,            Hyunggoo%Kang%NULL%1,            Yeongtak%Song%NULL%1,            Sanghyun%Lee%NULL%1,            Abdelouahab%Bellou.%NULL%2,            Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -938,7 +998,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -967,7 +1027,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -996,7 +1056,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1025,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1054,7 +1114,7 @@
         <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1083,7 +1143,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1112,7 +1172,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1141,7 +1201,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1170,7 +1230,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1199,7 +1259,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>

--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="185">
   <si>
     <t>Doi</t>
   </si>
@@ -635,6 +635,36 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,            Jaehoon%Oh%NULL%1,            Tae Ho%Lim%NULL%1,            Hyunggoo%Kang%NULL%1,            Yeongtak%Song%NULL%1,            Sanghyun%Lee%NULL%1,            Abdelouahab%Bellou.%NULL%2,            Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,             Philippe%Bidet%NULL%1,             Gérard%Lina%NULL%1,             Mostapha%Mokhtari%NULL%1,             Marie-Claude%André%NULL%1,             Dominique%Gendrel%NULL%1,             Edouard%Bingen%NULL%1,             Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,             Mi-Yeon%Yeon%NULL%0,             Mi-Yeon%Yeon%NULL%0,             Jung Wan%Park%NULL%0,             Jung Wan%Park%NULL%0,             Jee-Young%Hong%NULL%2,             Jee-Young%Hong%NULL%0,             Ji Woong%Son%NULL%2,             Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,             Mona%Loutfy%NULL%1,             L. Clifford%McDonald%NULL%2,             Kenneth F.%Martinez%NULL%1,             Mariana%Ofner%NULL%1,             Tom%Wong%NULL%1,             Tamara%Wallington%NULL%1,             Wayne L.%Gold%NULL%1,             Barbara%Mederski%NULL%1,             Karen%Green%NULL%3,             Donald E.%Low%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1,       W.%Choi%xref no email%1,       S.-W.%Park%xref no email%1,       E. B.%Wang%xref no email%1,       W.-J.%Lee%xref no email%1,       Y.%Jee%xref no email%1,       K. S.%Lim%xref no email%1,       H.-J.%Lee%xref no email%1,       S.-M.%Kim%xref no email%1,       S.-O.%Lee%xref no email%1,       S.-H.%Choi%xref no email%1,       Y. S.%Kim%xref no email%1,       J. H.%Woo%xref no email%1,       S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,     M.A.%Weigand%null%1,     E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,             Fang%Tang%NULL%1,             Li‐Qun%Fang%NULL%1,             Sake J.%De Vlas%NULL%1,             Huai‐Jian%Ma%NULL%1,             Jie‐Ping%Zhou%NULL%1,             Caspar W. N.%Looman%NULL%1,             Jan Hendrik%Richardus%NULL%1,             Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,             Allison%McGeer%NULL%2,             Bonnie%Henry%NULL%2,             Marianna%Ofner%NULL%2,             David%Rose%NULL%1,             Tammy%Hlywka%NULL%1,             Joanne%Levie%NULL%1,             Jane%McQueen%NULL%1,             Stephanie%Smith%NULL%1,             Lorraine%Moss%NULL%1,             Andrew%Smith%NULL%1,             Karen%Green%NULL%0,             Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,             Altynay%Shigayeva%NULL%1,             Allison%McGeer%NULL%0,             Erika%Bontovics%NULL%1,             Martin%Chapman%NULL%1,             Denise%Gravel%NULL%1,             Bonnie%Henry%NULL%0,             Stephen%Lapinsky%NULL%1,             Mark%Loeb%NULL%1,             L. Clifford%McDonald%NULL%0,             Marianna%Ofner%NULL%0,             Shirley%Paton%NULL%1,             Donna%Reynolds%NULL%1,             Damon%Scales%NULL%1,             Sandy%Shen%NULL%1,             Andrew%Simor%NULL%1,             Thomas%Stewart%NULL%1,             Mary%Vearncombe%NULL%1,             Dick%Zoutman%NULL%1,             Karen%Green%NULL%0,             Joel Mark%Montgomery%NULL%4,             Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1,       Stuart A.%Gray%xref no email%1,       Sophie%Michel%xref no email%1,       Roger%Alcock%xref no email%1,       Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,             Jaehoon%Oh%NULL%1,             Tae Ho%Lim%NULL%1,             Hyunggoo%Kang%NULL%1,             Yeongtak%Song%NULL%1,             Sanghyun%Lee%NULL%1,             Abdelouahab%Bellou.%NULL%2,             Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1028,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1027,7 +1057,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1056,7 +1086,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1085,7 +1115,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1114,7 +1144,7 @@
         <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1143,7 +1173,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1172,7 +1202,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1201,7 +1231,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1230,7 +1260,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1259,7 +1289,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>

--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="195">
   <si>
     <t>Doi</t>
   </si>
@@ -665,6 +665,36 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,             Jaehoon%Oh%NULL%1,             Tae Ho%Lim%NULL%1,             Hyunggoo%Kang%NULL%1,             Yeongtak%Song%NULL%1,             Sanghyun%Lee%NULL%1,             Abdelouahab%Bellou.%NULL%2,             Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,              Philippe%Bidet%NULL%1,              Gérard%Lina%NULL%1,              Mostapha%Mokhtari%NULL%1,              Marie-Claude%André%NULL%1,              Dominique%Gendrel%NULL%1,              Edouard%Bingen%NULL%1,              Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,              Mi-Yeon%Yeon%NULL%0,              Mi-Yeon%Yeon%NULL%0,              Jung Wan%Park%NULL%0,              Jung Wan%Park%NULL%0,              Jee-Young%Hong%NULL%2,              Jee-Young%Hong%NULL%0,              Ji Woong%Son%NULL%2,              Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,              Mona%Loutfy%NULL%1,              L. Clifford%McDonald%NULL%2,              Kenneth F.%Martinez%NULL%1,              Mariana%Ofner%NULL%1,              Tom%Wong%NULL%1,              Tamara%Wallington%NULL%1,              Wayne L.%Gold%NULL%1,              Barbara%Mederski%NULL%1,              Karen%Green%NULL%3,              Donald E.%Low%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1,        W.%Choi%xref no email%1,        S.-W.%Park%xref no email%1,        E. B.%Wang%xref no email%1,        W.-J.%Lee%xref no email%1,        Y.%Jee%xref no email%1,        K. S.%Lim%xref no email%1,        H.-J.%Lee%xref no email%1,        S.-M.%Kim%xref no email%1,        S.-O.%Lee%xref no email%1,        S.-H.%Choi%xref no email%1,        Y. S.%Kim%xref no email%1,        J. H.%Woo%xref no email%1,        S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,      M.A.%Weigand%null%1,      E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,              Fang%Tang%NULL%1,              Li‐Qun%Fang%NULL%1,              Sake J.%De Vlas%NULL%1,              Huai‐Jian%Ma%NULL%1,              Jie‐Ping%Zhou%NULL%1,              Caspar W. N.%Looman%NULL%1,              Jan Hendrik%Richardus%NULL%1,              Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,              Allison%McGeer%NULL%2,              Bonnie%Henry%NULL%2,              Marianna%Ofner%NULL%2,              David%Rose%NULL%1,              Tammy%Hlywka%NULL%1,              Joanne%Levie%NULL%1,              Jane%McQueen%NULL%1,              Stephanie%Smith%NULL%1,              Lorraine%Moss%NULL%1,              Andrew%Smith%NULL%1,              Karen%Green%NULL%0,              Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,              Altynay%Shigayeva%NULL%1,              Allison%McGeer%NULL%0,              Erika%Bontovics%NULL%1,              Martin%Chapman%NULL%1,              Denise%Gravel%NULL%1,              Bonnie%Henry%NULL%0,              Stephen%Lapinsky%NULL%1,              Mark%Loeb%NULL%1,              L. Clifford%McDonald%NULL%0,              Marianna%Ofner%NULL%0,              Shirley%Paton%NULL%1,              Donna%Reynolds%NULL%1,              Damon%Scales%NULL%1,              Sandy%Shen%NULL%1,              Andrew%Simor%NULL%1,              Thomas%Stewart%NULL%1,              Mary%Vearncombe%NULL%1,              Dick%Zoutman%NULL%1,              Karen%Green%NULL%0,              Joel Mark%Montgomery%NULL%4,              Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1,        Stuart A.%Gray%xref no email%1,        Sophie%Michel%xref no email%1,        Roger%Alcock%xref no email%1,        Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,              Jaehoon%Oh%NULL%1,              Tae Ho%Lim%NULL%1,              Hyunggoo%Kang%NULL%1,              Yeongtak%Song%NULL%1,              Sanghyun%Lee%NULL%1,              Abdelouahab%Bellou.%NULL%2,              Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1058,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1057,7 +1087,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1086,7 +1116,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1115,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1144,7 +1174,7 @@
         <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1173,7 +1203,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1202,7 +1232,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1231,7 +1261,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1260,7 +1290,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1289,7 +1319,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>

--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="215">
   <si>
     <t>Doi</t>
   </si>
@@ -695,6 +695,66 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,              Jaehoon%Oh%NULL%1,              Tae Ho%Lim%NULL%1,              Hyunggoo%Kang%NULL%1,              Yeongtak%Song%NULL%1,              Sanghyun%Lee%NULL%1,              Abdelouahab%Bellou.%NULL%2,              Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,               Philippe%Bidet%NULL%1,               Gérard%Lina%NULL%1,               Mostapha%Mokhtari%NULL%1,               Marie-Claude%André%NULL%1,               Dominique%Gendrel%NULL%1,               Edouard%Bingen%NULL%1,               Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,               Mi-Yeon%Yeon%NULL%0,               Mi-Yeon%Yeon%NULL%0,               Jung Wan%Park%NULL%0,               Jung Wan%Park%NULL%0,               Jee-Young%Hong%NULL%2,               Jee-Young%Hong%NULL%0,               Ji Woong%Son%NULL%2,               Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,               Mona%Loutfy%NULL%1,               L. Clifford%McDonald%NULL%2,               Kenneth F.%Martinez%NULL%1,               Mariana%Ofner%NULL%1,               Tom%Wong%NULL%1,               Tamara%Wallington%NULL%1,               Wayne L.%Gold%NULL%1,               Barbara%Mederski%NULL%1,               Karen%Green%NULL%3,               Donald E.%Low%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1,         W.%Choi%xref no email%1,         S.-W.%Park%xref no email%1,         E. B.%Wang%xref no email%1,         W.-J.%Lee%xref no email%1,         Y.%Jee%xref no email%1,         K. S.%Lim%xref no email%1,         H.-J.%Lee%xref no email%1,         S.-M.%Kim%xref no email%1,         S.-O.%Lee%xref no email%1,         S.-H.%Choi%xref no email%1,         Y. S.%Kim%xref no email%1,         J. H.%Woo%xref no email%1,         S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,       M.A.%Weigand%null%1,       E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,               Fang%Tang%NULL%1,               Li‐Qun%Fang%NULL%1,               Sake J.%De Vlas%NULL%1,               Huai‐Jian%Ma%NULL%1,               Jie‐Ping%Zhou%NULL%1,               Caspar W. N.%Looman%NULL%1,               Jan Hendrik%Richardus%NULL%1,               Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,               Allison%McGeer%NULL%2,               Bonnie%Henry%NULL%2,               Marianna%Ofner%NULL%2,               David%Rose%NULL%1,               Tammy%Hlywka%NULL%1,               Joanne%Levie%NULL%1,               Jane%McQueen%NULL%1,               Stephanie%Smith%NULL%1,               Lorraine%Moss%NULL%1,               Andrew%Smith%NULL%1,               Karen%Green%NULL%0,               Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,               Altynay%Shigayeva%NULL%1,               Allison%McGeer%NULL%0,               Erika%Bontovics%NULL%1,               Martin%Chapman%NULL%1,               Denise%Gravel%NULL%1,               Bonnie%Henry%NULL%0,               Stephen%Lapinsky%NULL%1,               Mark%Loeb%NULL%1,               L. Clifford%McDonald%NULL%0,               Marianna%Ofner%NULL%0,               Shirley%Paton%NULL%1,               Donna%Reynolds%NULL%1,               Damon%Scales%NULL%1,               Sandy%Shen%NULL%1,               Andrew%Simor%NULL%1,               Thomas%Stewart%NULL%1,               Mary%Vearncombe%NULL%1,               Dick%Zoutman%NULL%1,               Karen%Green%NULL%0,               Joel Mark%Montgomery%NULL%4,               Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1,         Stuart A.%Gray%xref no email%1,         Sophie%Michel%xref no email%1,         Roger%Alcock%xref no email%1,         Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,               Jaehoon%Oh%NULL%1,               Tae Ho%Lim%NULL%1,               Hyunggoo%Kang%NULL%1,               Yeongtak%Song%NULL%1,               Sanghyun%Lee%NULL%1,               Abdelouahab%Bellou.%NULL%2,               Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                Philippe%Bidet%NULL%1,                Gérard%Lina%NULL%1,                Mostapha%Mokhtari%NULL%1,                Marie-Claude%André%NULL%1,                Dominique%Gendrel%NULL%1,                Edouard%Bingen%NULL%1,                Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                Mi-Yeon%Yeon%NULL%0,                Mi-Yeon%Yeon%NULL%0,                Jung Wan%Park%NULL%0,                Jung Wan%Park%NULL%0,                Jee-Young%Hong%NULL%2,                Jee-Young%Hong%NULL%0,                Ji Woong%Son%NULL%2,                Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                Mona%Loutfy%NULL%1,                L. Clifford%McDonald%NULL%2,                Kenneth F.%Martinez%NULL%1,                Mariana%Ofner%NULL%1,                Tom%Wong%NULL%1,                Tamara%Wallington%NULL%1,                Wayne L.%Gold%NULL%1,                Barbara%Mederski%NULL%1,                Karen%Green%NULL%3,                Donald E.%Low%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1,          W.%Choi%xref no email%1,          S.-W.%Park%xref no email%1,          E. B.%Wang%xref no email%1,          W.-J.%Lee%xref no email%1,          Y.%Jee%xref no email%1,          K. S.%Lim%xref no email%1,          H.-J.%Lee%xref no email%1,          S.-M.%Kim%xref no email%1,          S.-O.%Lee%xref no email%1,          S.-H.%Choi%xref no email%1,          Y. S.%Kim%xref no email%1,          J. H.%Woo%xref no email%1,          S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,        M.A.%Weigand%null%1,        E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                Fang%Tang%NULL%1,                Li‐Qun%Fang%NULL%1,                Sake J.%De Vlas%NULL%1,                Huai‐Jian%Ma%NULL%1,                Jie‐Ping%Zhou%NULL%1,                Caspar W. N.%Looman%NULL%1,                Jan Hendrik%Richardus%NULL%1,                Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                Allison%McGeer%NULL%2,                Bonnie%Henry%NULL%2,                Marianna%Ofner%NULL%2,                David%Rose%NULL%1,                Tammy%Hlywka%NULL%1,                Joanne%Levie%NULL%1,                Jane%McQueen%NULL%1,                Stephanie%Smith%NULL%1,                Lorraine%Moss%NULL%1,                Andrew%Smith%NULL%1,                Karen%Green%NULL%0,                Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                Altynay%Shigayeva%NULL%1,                Allison%McGeer%NULL%0,                Erika%Bontovics%NULL%1,                Martin%Chapman%NULL%1,                Denise%Gravel%NULL%1,                Bonnie%Henry%NULL%0,                Stephen%Lapinsky%NULL%1,                Mark%Loeb%NULL%1,                L. Clifford%McDonald%NULL%0,                Marianna%Ofner%NULL%0,                Shirley%Paton%NULL%1,                Donna%Reynolds%NULL%1,                Damon%Scales%NULL%1,                Sandy%Shen%NULL%1,                Andrew%Simor%NULL%1,                Thomas%Stewart%NULL%1,                Mary%Vearncombe%NULL%1,                Dick%Zoutman%NULL%1,                Karen%Green%NULL%0,                Joel Mark%Montgomery%NULL%4,                Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1,          Stuart A.%Gray%xref no email%1,          Sophie%Michel%xref no email%1,          Roger%Alcock%xref no email%1,          Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                Jaehoon%Oh%NULL%1,                Tae Ho%Lim%NULL%1,                Hyunggoo%Kang%NULL%1,                Yeongtak%Song%NULL%1,                Sanghyun%Lee%NULL%1,                Abdelouahab%Bellou.%NULL%2,                Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1118,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1087,7 +1147,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1116,7 +1176,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1145,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1174,7 +1234,7 @@
         <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1203,7 +1263,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1232,7 +1292,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1261,7 +1321,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1290,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1319,7 +1379,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>

--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="225">
   <si>
     <t>Doi</t>
   </si>
@@ -755,6 +755,36 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,                Jaehoon%Oh%NULL%1,                Tae Ho%Lim%NULL%1,                Hyunggoo%Kang%NULL%1,                Yeongtak%Song%NULL%1,                Sanghyun%Lee%NULL%1,                Abdelouahab%Bellou.%NULL%2,                Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                 Philippe%Bidet%NULL%1,                 Gérard%Lina%NULL%1,                 Mostapha%Mokhtari%NULL%1,                 Marie-Claude%André%NULL%1,                 Dominique%Gendrel%NULL%1,                 Edouard%Bingen%NULL%1,                 Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                 Mi-Yeon%Yeon%NULL%0,                 Mi-Yeon%Yeon%NULL%0,                 Jung Wan%Park%NULL%0,                 Jung Wan%Park%NULL%0,                 Jee-Young%Hong%NULL%2,                 Jee-Young%Hong%NULL%0,                 Ji Woong%Son%NULL%2,                 Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                 Mona%Loutfy%NULL%1,                 L. Clifford%McDonald%NULL%2,                 Kenneth F.%Martinez%NULL%1,                 Mariana%Ofner%NULL%1,                 Tom%Wong%NULL%1,                 Tamara%Wallington%NULL%1,                 Wayne L.%Gold%NULL%1,                 Barbara%Mederski%NULL%1,                 Karen%Green%NULL%3,                 Donald E.%Low%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1,           W.%Choi%xref no email%1,           S.-W.%Park%xref no email%1,           E. B.%Wang%xref no email%1,           W.-J.%Lee%xref no email%1,           Y.%Jee%xref no email%1,           K. S.%Lim%xref no email%1,           H.-J.%Lee%xref no email%1,           S.-M.%Kim%xref no email%1,           S.-O.%Lee%xref no email%1,           S.-H.%Choi%xref no email%1,           Y. S.%Kim%xref no email%1,           J. H.%Woo%xref no email%1,           S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,         M.A.%Weigand%null%1,         E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                 Fang%Tang%NULL%1,                 Li‐Qun%Fang%NULL%1,                 Sake J.%De Vlas%NULL%1,                 Huai‐Jian%Ma%NULL%1,                 Jie‐Ping%Zhou%NULL%1,                 Caspar W. N.%Looman%NULL%1,                 Jan Hendrik%Richardus%NULL%1,                 Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                 Allison%McGeer%NULL%2,                 Bonnie%Henry%NULL%2,                 Marianna%Ofner%NULL%2,                 David%Rose%NULL%1,                 Tammy%Hlywka%NULL%1,                 Joanne%Levie%NULL%1,                 Jane%McQueen%NULL%1,                 Stephanie%Smith%NULL%1,                 Lorraine%Moss%NULL%1,                 Andrew%Smith%NULL%1,                 Karen%Green%NULL%0,                 Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                 Altynay%Shigayeva%NULL%1,                 Allison%McGeer%NULL%0,                 Erika%Bontovics%NULL%1,                 Martin%Chapman%NULL%1,                 Denise%Gravel%NULL%1,                 Bonnie%Henry%NULL%0,                 Stephen%Lapinsky%NULL%1,                 Mark%Loeb%NULL%1,                 L. Clifford%McDonald%NULL%0,                 Marianna%Ofner%NULL%0,                 Shirley%Paton%NULL%1,                 Donna%Reynolds%NULL%1,                 Damon%Scales%NULL%1,                 Sandy%Shen%NULL%1,                 Andrew%Simor%NULL%1,                 Thomas%Stewart%NULL%1,                 Mary%Vearncombe%NULL%1,                 Dick%Zoutman%NULL%1,                 Karen%Green%NULL%0,                 Joel Mark%Montgomery%NULL%4,                 Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1,           Stuart A.%Gray%xref no email%1,           Sophie%Michel%xref no email%1,           Roger%Alcock%xref no email%1,           Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                 Jaehoon%Oh%NULL%1,                 Tae Ho%Lim%NULL%1,                 Hyunggoo%Kang%NULL%1,                 Yeongtak%Song%NULL%1,                 Sanghyun%Lee%NULL%1,                 Abdelouahab%Bellou.%NULL%2,                 Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1147,7 +1177,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1176,7 +1206,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1205,7 +1235,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1234,7 +1264,7 @@
         <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1263,7 +1293,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1292,7 +1322,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1321,7 +1351,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1350,7 +1380,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1379,7 +1409,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>

--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="237">
   <si>
     <t>Doi</t>
   </si>
@@ -785,6 +785,42 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,                 Jaehoon%Oh%NULL%1,                 Tae Ho%Lim%NULL%1,                 Hyunggoo%Kang%NULL%1,                 Yeongtak%Song%NULL%1,                 Sanghyun%Lee%NULL%1,                 Abdelouahab%Bellou.%NULL%2,                 Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                  Philippe%Bidet%NULL%1,                  Gérard%Lina%NULL%1,                  Mostapha%Mokhtari%NULL%1,                  Marie-Claude%André%NULL%1,                  Dominique%Gendrel%NULL%1,                  Edouard%Bingen%NULL%1,                  Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                  Mi-Yeon%Yeon%NULL%0,                  Mi-Yeon%Yeon%NULL%0,                  Jung Wan%Park%NULL%0,                  Jung Wan%Park%NULL%0,                  Jee-Young%Hong%NULL%2,                  Jee-Young%Hong%NULL%0,                  Ji Woong%Son%NULL%2,                  Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                  Mona%Loutfy%NULL%1,                  L. Clifford%McDonald%NULL%2,                  Kenneth F.%Martinez%NULL%1,                  Mariana%Ofner%NULL%1,                  Tom%Wong%NULL%1,                  Tamara%Wallington%NULL%1,                  Wayne L.%Gold%NULL%1,                  Barbara%Mederski%NULL%1,                  Karen%Green%NULL%3,                  Donald E.%Low%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1,            W.%Choi%xref no email%1,            S.-W.%Park%xref no email%1,            E. B.%Wang%xref no email%1,            W.-J.%Lee%xref no email%1,            Y.%Jee%xref no email%1,            K. S.%Lim%xref no email%1,            H.-J.%Lee%xref no email%1,            S.-M.%Kim%xref no email%1,            S.-O.%Lee%xref no email%1,            S.-H.%Choi%xref no email%1,            Y. S.%Kim%xref no email%1,            J. H.%Woo%xref no email%1,            S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,          M.A.%Weigand%null%1,          E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                  Fang%Tang%NULL%1,                  Li‐Qun%Fang%NULL%1,                  Sake J.%De Vlas%NULL%1,                  Huai‐Jian%Ma%NULL%1,                  Jie‐Ping%Zhou%NULL%1,                  Caspar W. N.%Looman%NULL%1,                  Jan Hendrik%Richardus%NULL%1,                  Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                  Allison%McGeer%NULL%2,                  Bonnie%Henry%NULL%2,                  Marianna%Ofner%NULL%2,                  David%Rose%NULL%1,                  Tammy%Hlywka%NULL%1,                  Joanne%Levie%NULL%1,                  Jane%McQueen%NULL%1,                  Stephanie%Smith%NULL%1,                  Lorraine%Moss%NULL%1,                  Andrew%Smith%NULL%1,                  Karen%Green%NULL%0,                  Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                  Altynay%Shigayeva%NULL%1,                  Allison%McGeer%NULL%0,                  Erika%Bontovics%NULL%1,                  Martin%Chapman%NULL%1,                  Denise%Gravel%NULL%1,                  Bonnie%Henry%NULL%0,                  Stephen%Lapinsky%NULL%1,                  Mark%Loeb%NULL%1,                  L. Clifford%McDonald%NULL%0,                  Marianna%Ofner%NULL%0,                  Shirley%Paton%NULL%1,                  Donna%Reynolds%NULL%1,                  Damon%Scales%NULL%1,                  Sandy%Shen%NULL%1,                  Andrew%Simor%NULL%1,                  Thomas%Stewart%NULL%1,                  Mary%Vearncombe%NULL%1,                  Dick%Zoutman%NULL%1,                  Karen%Green%NULL%0,                  Joel Mark%Montgomery%NULL%4,                  Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1,            Stuart A.%Gray%xref no email%1,            Sophie%Michel%xref no email%1,            Roger%Alcock%xref no email%1,            Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                  Jaehoon%Oh%NULL%1,                  Tae Ho%Lim%NULL%1,                  Hyunggoo%Kang%NULL%1,                  Yeongtak%Song%NULL%1,                  Sanghyun%Lee%NULL%1,                  Abdelouahab%Bellou.%NULL%2,                  Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1184,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1160,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
@@ -1177,7 +1213,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1189,7 +1225,7 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4">
@@ -1206,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1218,7 +1254,7 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
@@ -1235,7 +1271,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1247,7 +1283,7 @@
         <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -1264,7 +1300,7 @@
         <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1276,7 +1312,7 @@
         <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -1293,7 +1329,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1305,7 +1341,7 @@
         <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8">
@@ -1322,7 +1358,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1334,7 +1370,7 @@
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9">
@@ -1351,7 +1387,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1363,7 +1399,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10">
@@ -1380,7 +1416,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1392,7 +1428,7 @@
         <v>122</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -1409,7 +1445,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>
@@ -1421,7 +1457,7 @@
         <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
@@ -1450,7 +1486,7 @@
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="247">
   <si>
     <t>Doi</t>
   </si>
@@ -821,6 +821,36 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,                  Jaehoon%Oh%NULL%1,                  Tae Ho%Lim%NULL%1,                  Hyunggoo%Kang%NULL%1,                  Yeongtak%Song%NULL%1,                  Sanghyun%Lee%NULL%1,                  Abdelouahab%Bellou.%NULL%2,                  Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                   Philippe%Bidet%NULL%1,                   Gérard%Lina%NULL%1,                   Mostapha%Mokhtari%NULL%1,                   Marie-Claude%André%NULL%1,                   Dominique%Gendrel%NULL%1,                   Edouard%Bingen%NULL%1,                   Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                   Mi-Yeon%Yeon%NULL%0,                   Mi-Yeon%Yeon%NULL%0,                   Jung Wan%Park%NULL%0,                   Jung Wan%Park%NULL%0,                   Jee-Young%Hong%NULL%2,                   Jee-Young%Hong%NULL%0,                   Ji Woong%Son%NULL%2,                   Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                   Mona%Loutfy%NULL%1,                   L. Clifford%McDonald%NULL%2,                   Kenneth F.%Martinez%NULL%1,                   Mariana%Ofner%NULL%1,                   Tom%Wong%NULL%1,                   Tamara%Wallington%NULL%1,                   Wayne L.%Gold%NULL%1,                   Barbara%Mederski%NULL%1,                   Karen%Green%NULL%3,                   Donald E.%Low%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%1,             W.%Choi%xref no email%1,             S.-W.%Park%xref no email%1,             E. B.%Wang%xref no email%1,             W.-J.%Lee%xref no email%1,             Y.%Jee%xref no email%1,             K. S.%Lim%xref no email%1,             H.-J.%Lee%xref no email%1,             S.-M.%Kim%xref no email%1,             S.-O.%Lee%xref no email%1,             S.-H.%Choi%xref no email%1,             Y. S.%Kim%xref no email%1,             J. H.%Woo%xref no email%1,             S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,           M.A.%Weigand%null%1,           E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                   Fang%Tang%NULL%1,                   Li‐Qun%Fang%NULL%1,                   Sake J.%De Vlas%NULL%1,                   Huai‐Jian%Ma%NULL%1,                   Jie‐Ping%Zhou%NULL%1,                   Caspar W. N.%Looman%NULL%1,                   Jan Hendrik%Richardus%NULL%1,                   Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                   Allison%McGeer%NULL%2,                   Bonnie%Henry%NULL%2,                   Marianna%Ofner%NULL%2,                   David%Rose%NULL%1,                   Tammy%Hlywka%NULL%1,                   Joanne%Levie%NULL%1,                   Jane%McQueen%NULL%1,                   Stephanie%Smith%NULL%1,                   Lorraine%Moss%NULL%1,                   Andrew%Smith%NULL%1,                   Karen%Green%NULL%0,                   Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                   Altynay%Shigayeva%NULL%1,                   Allison%McGeer%NULL%0,                   Erika%Bontovics%NULL%1,                   Martin%Chapman%NULL%1,                   Denise%Gravel%NULL%1,                   Bonnie%Henry%NULL%0,                   Stephen%Lapinsky%NULL%1,                   Mark%Loeb%NULL%1,                   L. Clifford%McDonald%NULL%0,                   Marianna%Ofner%NULL%0,                   Shirley%Paton%NULL%1,                   Donna%Reynolds%NULL%1,                   Damon%Scales%NULL%1,                   Sandy%Shen%NULL%1,                   Andrew%Simor%NULL%1,                   Thomas%Stewart%NULL%1,                   Mary%Vearncombe%NULL%1,                   Dick%Zoutman%NULL%1,                   Karen%Green%NULL%0,                   Joel Mark%Montgomery%NULL%4,                   Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%1,             Stuart A.%Gray%xref no email%1,             Sophie%Michel%xref no email%1,             Roger%Alcock%xref no email%1,             Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                   Jaehoon%Oh%NULL%1,                   Tae Ho%Lim%NULL%1,                   Hyunggoo%Kang%NULL%1,                   Yeongtak%Song%NULL%1,                   Sanghyun%Lee%NULL%1,                   Abdelouahab%Bellou.%NULL%2,                   Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1214,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1213,7 +1243,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1242,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1271,7 +1301,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1300,7 +1330,7 @@
         <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1329,7 +1359,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1358,7 +1388,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1387,7 +1417,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1416,7 +1446,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1445,7 +1475,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>

--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="292">
   <si>
     <t>Doi</t>
   </si>
@@ -851,6 +851,141 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,                   Jaehoon%Oh%NULL%1,                   Tae Ho%Lim%NULL%1,                   Hyunggoo%Kang%NULL%1,                   Yeongtak%Song%NULL%1,                   Sanghyun%Lee%NULL%1,                   Abdelouahab%Bellou.%NULL%2,                   Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                    Philippe%Bidet%NULL%1,                    Gérard%Lina%NULL%1,                    Mostapha%Mokhtari%NULL%1,                    Marie-Claude%André%NULL%1,                    Dominique%Gendrel%NULL%1,                    Edouard%Bingen%NULL%1,                    Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                    Mi-Yeon%Yeon%NULL%0,                    Mi-Yeon%Yeon%NULL%0,                    Jung Wan%Park%NULL%0,                    Jung Wan%Park%NULL%0,                    Jee-Young%Hong%NULL%2,                    Jee-Young%Hong%NULL%0,                    Ji Woong%Son%NULL%2,                    Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                    Mona%Loutfy%NULL%1,                    L. Clifford%McDonald%NULL%2,                    Kenneth F.%Martinez%NULL%1,                    Mariana%Ofner%NULL%1,                    Tom%Wong%NULL%1,                    Tamara%Wallington%NULL%1,                    Wayne L.%Gold%NULL%1,                    Barbara%Mederski%NULL%1,                    Karen%Green%NULL%3,                    Donald E.%Low%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W. Y.%Kim%xref no email%0, W.%Choi%xref no email%1, S.-W.%Park%xref no email%1, E. B.%Wang%xref no email%1, W.-J.%Lee%xref no email%1, Y.%Jee%xref no email%1, K. S.%Lim%xref no email%1, H.-J.%Lee%xref no email%1, S.-M.%Kim%xref no email%1, S.-O.%Lee%xref no email%1, S.-H.%Choi%xref no email%1, Y. S.%Kim%xref no email%1, J. H.%Woo%xref no email%1, S.-H.%Kim%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Oxford University Press (OUP)</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,            M.A.%Weigand%null%1,            E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                    Fang%Tang%NULL%1,                    Li‐Qun%Fang%NULL%1,                    Sake J.%De Vlas%NULL%1,                    Huai‐Jian%Ma%NULL%1,                    Jie‐Ping%Zhou%NULL%1,                    Caspar W. N.%Looman%NULL%1,                    Jan Hendrik%Richardus%NULL%1,                    Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                    Allison%McGeer%NULL%2,                    Bonnie%Henry%NULL%2,                    Marianna%Ofner%NULL%2,                    David%Rose%NULL%1,                    Tammy%Hlywka%NULL%1,                    Joanne%Levie%NULL%1,                    Jane%McQueen%NULL%1,                    Stephanie%Smith%NULL%1,                    Lorraine%Moss%NULL%1,                    Andrew%Smith%NULL%1,                    Karen%Green%NULL%0,                    Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                    Altynay%Shigayeva%NULL%1,                    Allison%McGeer%NULL%0,                    Erika%Bontovics%NULL%1,                    Martin%Chapman%NULL%1,                    Denise%Gravel%NULL%1,                    Bonnie%Henry%NULL%0,                    Stephen%Lapinsky%NULL%1,                    Mark%Loeb%NULL%1,                    L. Clifford%McDonald%NULL%0,                    Marianna%Ofner%NULL%0,                    Shirley%Paton%NULL%1,                    Donna%Reynolds%NULL%1,                    Damon%Scales%NULL%1,                    Sandy%Shen%NULL%1,                    Andrew%Simor%NULL%1,                    Thomas%Stewart%NULL%1,                    Mary%Vearncombe%NULL%1,                    Dick%Zoutman%NULL%1,                    Karen%Green%NULL%0,                    Joel Mark%Montgomery%NULL%4,                    Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jan%Schumacher%xref no email%0, Stuart A.%Gray%xref no email%1, Sophie%Michel%xref no email%1, Roger%Alcock%xref no email%1, Andrea%Brinker%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Cambridge University Press (CUP)</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                    Jaehoon%Oh%NULL%1,                    Tae Ho%Lim%NULL%1,                    Hyunggoo%Kang%NULL%1,                    Yeongtak%Song%NULL%1,                    Sanghyun%Lee%NULL%1,                    Abdelouahab%Bellou.%NULL%2,                    Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                     Philippe%Bidet%NULL%1,                     Gérard%Lina%NULL%1,                     Mostapha%Mokhtari%NULL%1,                     Marie-Claude%André%NULL%1,                     Dominique%Gendrel%NULL%1,                     Edouard%Bingen%NULL%1,                     Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                     Mi-Yeon%Yeon%NULL%0,                     Mi-Yeon%Yeon%NULL%0,                     Jung Wan%Park%NULL%0,                     Jung Wan%Park%NULL%0,                     Jee-Young%Hong%NULL%2,                     Jee-Young%Hong%NULL%0,                     Ji Woong%Son%NULL%2,                     Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                     Mona%Loutfy%NULL%1,                     L. Clifford%McDonald%NULL%2,                     Kenneth F.%Martinez%NULL%1,                     Mariana%Ofner%NULL%1,                     Tom%Wong%NULL%1,                     Tamara%Wallington%NULL%1,                     Wayne L.%Gold%NULL%1,                     Barbara%Mederski%NULL%1,                     Karen%Green%NULL%3,                     Donald E.%Low%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,             M.A.%Weigand%null%1,             E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                     Fang%Tang%NULL%1,                     Li‐Qun%Fang%NULL%1,                     Sake J.%De Vlas%NULL%1,                     Huai‐Jian%Ma%NULL%1,                     Jie‐Ping%Zhou%NULL%1,                     Caspar W. N.%Looman%NULL%1,                     Jan Hendrik%Richardus%NULL%1,                     Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                     Allison%McGeer%NULL%2,                     Bonnie%Henry%NULL%2,                     Marianna%Ofner%NULL%2,                     David%Rose%NULL%1,                     Tammy%Hlywka%NULL%1,                     Joanne%Levie%NULL%1,                     Jane%McQueen%NULL%1,                     Stephanie%Smith%NULL%1,                     Lorraine%Moss%NULL%1,                     Andrew%Smith%NULL%1,                     Karen%Green%NULL%0,                     Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                     Altynay%Shigayeva%NULL%1,                     Allison%McGeer%NULL%0,                     Erika%Bontovics%NULL%1,                     Martin%Chapman%NULL%1,                     Denise%Gravel%NULL%1,                     Bonnie%Henry%NULL%0,                     Stephen%Lapinsky%NULL%1,                     Mark%Loeb%NULL%1,                     L. Clifford%McDonald%NULL%0,                     Marianna%Ofner%NULL%0,                     Shirley%Paton%NULL%1,                     Donna%Reynolds%NULL%1,                     Damon%Scales%NULL%1,                     Sandy%Shen%NULL%1,                     Andrew%Simor%NULL%1,                     Thomas%Stewart%NULL%1,                     Mary%Vearncombe%NULL%1,                     Dick%Zoutman%NULL%1,                     Karen%Green%NULL%0,                     Joel Mark%Montgomery%NULL%4,                     Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                     Jaehoon%Oh%NULL%1,                     Tae Ho%Lim%NULL%1,                     Hyunggoo%Kang%NULL%1,                     Yeongtak%Song%NULL%1,                     Sanghyun%Lee%NULL%1,                     Abdelouahab%Bellou.%NULL%2,                     Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                      Philippe%Bidet%NULL%1,                      Gérard%Lina%NULL%1,                      Mostapha%Mokhtari%NULL%1,                      Marie-Claude%André%NULL%1,                      Dominique%Gendrel%NULL%1,                      Edouard%Bingen%NULL%1,                      Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                      Mi-Yeon%Yeon%NULL%0,                      Mi-Yeon%Yeon%NULL%0,                      Jung Wan%Park%NULL%0,                      Jung Wan%Park%NULL%0,                      Jee-Young%Hong%NULL%2,                      Jee-Young%Hong%NULL%0,                      Ji Woong%Son%NULL%2,                      Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                      Mona%Loutfy%NULL%1,                      L. Clifford%McDonald%NULL%2,                      Kenneth F.%Martinez%NULL%1,                      Mariana%Ofner%NULL%1,                      Tom%Wong%NULL%1,                      Tamara%Wallington%NULL%1,                      Wayne L.%Gold%NULL%1,                      Barbara%Mederski%NULL%1,                      Karen%Green%NULL%3,                      Donald E.%Low%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,              M.A.%Weigand%null%1,              E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                      Fang%Tang%NULL%1,                      Li‐Qun%Fang%NULL%1,                      Sake J.%De Vlas%NULL%1,                      Huai‐Jian%Ma%NULL%1,                      Jie‐Ping%Zhou%NULL%1,                      Caspar W. N.%Looman%NULL%1,                      Jan Hendrik%Richardus%NULL%1,                      Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                      Allison%McGeer%NULL%2,                      Bonnie%Henry%NULL%2,                      Marianna%Ofner%NULL%2,                      David%Rose%NULL%1,                      Tammy%Hlywka%NULL%1,                      Joanne%Levie%NULL%1,                      Jane%McQueen%NULL%1,                      Stephanie%Smith%NULL%1,                      Lorraine%Moss%NULL%1,                      Andrew%Smith%NULL%1,                      Karen%Green%NULL%0,                      Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                      Altynay%Shigayeva%NULL%1,                      Allison%McGeer%NULL%0,                      Erika%Bontovics%NULL%1,                      Martin%Chapman%NULL%1,                      Denise%Gravel%NULL%1,                      Bonnie%Henry%NULL%0,                      Stephen%Lapinsky%NULL%1,                      Mark%Loeb%NULL%1,                      L. Clifford%McDonald%NULL%0,                      Marianna%Ofner%NULL%0,                      Shirley%Paton%NULL%1,                      Donna%Reynolds%NULL%1,                      Damon%Scales%NULL%1,                      Sandy%Shen%NULL%1,                      Andrew%Simor%NULL%1,                      Thomas%Stewart%NULL%1,                      Mary%Vearncombe%NULL%1,                      Dick%Zoutman%NULL%1,                      Karen%Green%NULL%0,                      Joel Mark%Montgomery%NULL%4,                      Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                      Jaehoon%Oh%NULL%1,                      Tae Ho%Lim%NULL%1,                      Hyunggoo%Kang%NULL%1,                      Yeongtak%Song%NULL%1,                      Sanghyun%Lee%NULL%1,                      Abdelouahab%Bellou.%NULL%2,                      Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                       Philippe%Bidet%NULL%1,                       Gérard%Lina%NULL%1,                       Mostapha%Mokhtari%NULL%1,                       Marie-Claude%André%NULL%1,                       Dominique%Gendrel%NULL%1,                       Edouard%Bingen%NULL%1,                       Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                       Mi-Yeon%Yeon%NULL%0,                       Mi-Yeon%Yeon%NULL%0,                       Jung Wan%Park%NULL%0,                       Jung Wan%Park%NULL%0,                       Jee-Young%Hong%NULL%2,                       Jee-Young%Hong%NULL%0,                       Ji Woong%Son%NULL%2,                       Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                       Mona%Loutfy%NULL%1,                       L. Clifford%McDonald%NULL%2,                       Kenneth F.%Martinez%NULL%1,                       Mariana%Ofner%NULL%1,                       Tom%Wong%NULL%1,                       Tamara%Wallington%NULL%1,                       Wayne L.%Gold%NULL%1,                       Barbara%Mederski%NULL%1,                       Karen%Green%NULL%3,                       Donald E.%Low%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,               M.A.%Weigand%null%1,               E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                       Fang%Tang%NULL%1,                       Li‐Qun%Fang%NULL%1,                       Sake J.%De Vlas%NULL%1,                       Huai‐Jian%Ma%NULL%1,                       Jie‐Ping%Zhou%NULL%1,                       Caspar W. N.%Looman%NULL%1,                       Jan Hendrik%Richardus%NULL%1,                       Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                       Allison%McGeer%NULL%2,                       Bonnie%Henry%NULL%2,                       Marianna%Ofner%NULL%2,                       David%Rose%NULL%1,                       Tammy%Hlywka%NULL%1,                       Joanne%Levie%NULL%1,                       Jane%McQueen%NULL%1,                       Stephanie%Smith%NULL%1,                       Lorraine%Moss%NULL%1,                       Andrew%Smith%NULL%1,                       Karen%Green%NULL%0,                       Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                       Altynay%Shigayeva%NULL%1,                       Allison%McGeer%NULL%0,                       Erika%Bontovics%NULL%1,                       Martin%Chapman%NULL%1,                       Denise%Gravel%NULL%1,                       Bonnie%Henry%NULL%0,                       Stephen%Lapinsky%NULL%1,                       Mark%Loeb%NULL%1,                       L. Clifford%McDonald%NULL%0,                       Marianna%Ofner%NULL%0,                       Shirley%Paton%NULL%1,                       Donna%Reynolds%NULL%1,                       Damon%Scales%NULL%1,                       Sandy%Shen%NULL%1,                       Andrew%Simor%NULL%1,                       Thomas%Stewart%NULL%1,                       Mary%Vearncombe%NULL%1,                       Dick%Zoutman%NULL%1,                       Karen%Green%NULL%0,                       Joel Mark%Montgomery%NULL%4,                       Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                       Jaehoon%Oh%NULL%1,                       Tae Ho%Lim%NULL%1,                       Hyunggoo%Kang%NULL%1,                       Yeongtak%Song%NULL%1,                       Sanghyun%Lee%NULL%1,                       Abdelouahab%Bellou.%NULL%2,                       Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                        Philippe%Bidet%NULL%1,                        Gérard%Lina%NULL%1,                        Mostapha%Mokhtari%NULL%1,                        Marie-Claude%André%NULL%1,                        Dominique%Gendrel%NULL%1,                        Edouard%Bingen%NULL%1,                        Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                        Mi-Yeon%Yeon%NULL%0,                        Mi-Yeon%Yeon%NULL%0,                        Jung Wan%Park%NULL%0,                        Jung Wan%Park%NULL%0,                        Jee-Young%Hong%NULL%2,                        Jee-Young%Hong%NULL%0,                        Ji Woong%Son%NULL%2,                        Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                        Mona%Loutfy%NULL%1,                        L. Clifford%McDonald%NULL%2,                        Kenneth F.%Martinez%NULL%1,                        Mariana%Ofner%NULL%1,                        Tom%Wong%NULL%1,                        Tamara%Wallington%NULL%1,                        Wayne L.%Gold%NULL%1,                        Barbara%Mederski%NULL%1,                        Karen%Green%NULL%3,                        Donald E.%Low%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,                M.A.%Weigand%null%1,                E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                        Fang%Tang%NULL%1,                        Li‐Qun%Fang%NULL%1,                        Sake J.%De Vlas%NULL%1,                        Huai‐Jian%Ma%NULL%1,                        Jie‐Ping%Zhou%NULL%1,                        Caspar W. N.%Looman%NULL%1,                        Jan Hendrik%Richardus%NULL%1,                        Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                        Allison%McGeer%NULL%2,                        Bonnie%Henry%NULL%2,                        Marianna%Ofner%NULL%2,                        David%Rose%NULL%1,                        Tammy%Hlywka%NULL%1,                        Joanne%Levie%NULL%1,                        Jane%McQueen%NULL%1,                        Stephanie%Smith%NULL%1,                        Lorraine%Moss%NULL%1,                        Andrew%Smith%NULL%1,                        Karen%Green%NULL%0,                        Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                        Altynay%Shigayeva%NULL%1,                        Allison%McGeer%NULL%0,                        Erika%Bontovics%NULL%1,                        Martin%Chapman%NULL%1,                        Denise%Gravel%NULL%1,                        Bonnie%Henry%NULL%0,                        Stephen%Lapinsky%NULL%1,                        Mark%Loeb%NULL%1,                        L. Clifford%McDonald%NULL%0,                        Marianna%Ofner%NULL%0,                        Shirley%Paton%NULL%1,                        Donna%Reynolds%NULL%1,                        Damon%Scales%NULL%1,                        Sandy%Shen%NULL%1,                        Andrew%Simor%NULL%1,                        Thomas%Stewart%NULL%1,                        Mary%Vearncombe%NULL%1,                        Dick%Zoutman%NULL%1,                        Karen%Green%NULL%0,                        Joel Mark%Montgomery%NULL%4,                        Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                        Jaehoon%Oh%NULL%1,                        Tae Ho%Lim%NULL%1,                        Hyunggoo%Kang%NULL%1,                        Yeongtak%Song%NULL%1,                        Sanghyun%Lee%NULL%1,                        Abdelouahab%Bellou.%NULL%2,                        Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1199,6 +1334,9 @@
       <c r="I1" t="s">
         <v>63</v>
       </c>
+      <c r="J1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1214,7 +1352,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1227,6 +1365,9 @@
       </c>
       <c r="I2" t="s">
         <v>226</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -1243,7 +1384,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1256,6 +1397,9 @@
       </c>
       <c r="I3" t="s">
         <v>226</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -1272,7 +1416,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1285,6 +1429,9 @@
       </c>
       <c r="I4" t="s">
         <v>226</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1301,7 +1448,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1313,7 +1460,10 @@
         <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>230</v>
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="6">
@@ -1330,7 +1480,7 @@
         <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1343,6 +1493,9 @@
       </c>
       <c r="I6" t="s">
         <v>230</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -1359,7 +1512,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1372,6 +1525,9 @@
       </c>
       <c r="I7" t="s">
         <v>226</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1388,7 +1544,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1401,6 +1557,9 @@
       </c>
       <c r="I8" t="s">
         <v>226</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -1417,7 +1576,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1430,6 +1589,9 @@
       </c>
       <c r="I9" t="s">
         <v>226</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -1446,7 +1608,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1458,7 +1620,10 @@
         <v>122</v>
       </c>
       <c r="I10" t="s">
-        <v>230</v>
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="11">
@@ -1475,7 +1640,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>
@@ -1488,6 +1653,9 @@
       </c>
       <c r="I11" t="s">
         <v>226</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -1517,6 +1685,9 @@
       </c>
       <c r="I12" t="s">
         <v>230</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/25.xlsx
+++ b/Covid_19_Dataset_and_References/References/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="308">
   <si>
     <t>Doi</t>
   </si>
@@ -986,6 +986,54 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,                        Jaehoon%Oh%NULL%1,                        Tae Ho%Lim%NULL%1,                        Hyunggoo%Kang%NULL%1,                        Yeongtak%Song%NULL%1,                        Sanghyun%Lee%NULL%1,                        Abdelouahab%Bellou.%NULL%2,                        Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                         Philippe%Bidet%NULL%1,                         Gérard%Lina%NULL%1,                         Mostapha%Mokhtari%NULL%1,                         Marie-Claude%André%NULL%1,                         Dominique%Gendrel%NULL%1,                         Edouard%Bingen%NULL%1,                         Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                         Mi-Yeon%Yeon%NULL%0,                         Mi-Yeon%Yeon%NULL%0,                         Jung Wan%Park%NULL%0,                         Jung Wan%Park%NULL%0,                         Jee-Young%Hong%NULL%2,                         Jee-Young%Hong%NULL%0,                         Ji Woong%Son%NULL%2,                         Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                         Mona%Loutfy%NULL%1,                         L. Clifford%McDonald%NULL%2,                         Kenneth F.%Martinez%NULL%1,                         Mariana%Ofner%NULL%1,                         Tom%Wong%NULL%1,                         Tamara%Wallington%NULL%1,                         Wayne L.%Gold%NULL%1,                         Barbara%Mederski%NULL%1,                         Karen%Green%NULL%3,                         Donald E.%Low%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,                 M.A.%Weigand%null%1,                 E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                         Fang%Tang%NULL%1,                         Li‐Qun%Fang%NULL%1,                         Sake J.%De Vlas%NULL%1,                         Huai‐Jian%Ma%NULL%1,                         Jie‐Ping%Zhou%NULL%1,                         Caspar W. N.%Looman%NULL%1,                         Jan Hendrik%Richardus%NULL%1,                         Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                         Allison%McGeer%NULL%2,                         Bonnie%Henry%NULL%2,                         Marianna%Ofner%NULL%2,                         David%Rose%NULL%1,                         Tammy%Hlywka%NULL%1,                         Joanne%Levie%NULL%1,                         Jane%McQueen%NULL%1,                         Stephanie%Smith%NULL%1,                         Lorraine%Moss%NULL%1,                         Andrew%Smith%NULL%1,                         Karen%Green%NULL%0,                         Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                         Altynay%Shigayeva%NULL%1,                         Allison%McGeer%NULL%0,                         Erika%Bontovics%NULL%1,                         Martin%Chapman%NULL%1,                         Denise%Gravel%NULL%1,                         Bonnie%Henry%NULL%0,                         Stephen%Lapinsky%NULL%1,                         Mark%Loeb%NULL%1,                         L. Clifford%McDonald%NULL%0,                         Marianna%Ofner%NULL%0,                         Shirley%Paton%NULL%1,                         Donna%Reynolds%NULL%1,                         Damon%Scales%NULL%1,                         Sandy%Shen%NULL%1,                         Andrew%Simor%NULL%1,                         Thomas%Stewart%NULL%1,                         Mary%Vearncombe%NULL%1,                         Dick%Zoutman%NULL%1,                         Karen%Green%NULL%0,                         Joel Mark%Montgomery%NULL%4,                         Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                         Jaehoon%Oh%NULL%1,                         Tae Ho%Lim%NULL%1,                         Hyunggoo%Kang%NULL%1,                         Yeongtak%Song%NULL%1,                         Sanghyun%Lee%NULL%1,                         Abdelouahab%Bellou.%NULL%2,                         Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                          Philippe%Bidet%NULL%1,                          Gérard%Lina%NULL%1,                          Mostapha%Mokhtari%NULL%1,                          Marie-Claude%André%NULL%1,                          Dominique%Gendrel%NULL%1,                          Edouard%Bingen%NULL%1,                          Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                          Mi-Yeon%Yeon%NULL%0,                          Mi-Yeon%Yeon%NULL%0,                          Jung Wan%Park%NULL%0,                          Jung Wan%Park%NULL%0,                          Jee-Young%Hong%NULL%2,                          Jee-Young%Hong%NULL%0,                          Ji Woong%Son%NULL%2,                          Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                          Mona%Loutfy%NULL%1,                          L. Clifford%McDonald%NULL%2,                          Kenneth F.%Martinez%NULL%1,                          Mariana%Ofner%NULL%1,                          Tom%Wong%NULL%1,                          Tamara%Wallington%NULL%1,                          Wayne L.%Gold%NULL%1,                          Barbara%Mederski%NULL%1,                          Karen%Green%NULL%3,                          Donald E.%Low%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ J.%Knapp%null%1,                  M.A.%Weigand%null%1,                  E.%Popp%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                          Fang%Tang%NULL%1,                          Li‐Qun%Fang%NULL%1,                          Sake J.%De Vlas%NULL%1,                          Huai‐Jian%Ma%NULL%1,                          Jie‐Ping%Zhou%NULL%1,                          Caspar W. N.%Looman%NULL%1,                          Jan Hendrik%Richardus%NULL%1,                          Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                          Allison%McGeer%NULL%2,                          Bonnie%Henry%NULL%2,                          Marianna%Ofner%NULL%2,                          David%Rose%NULL%1,                          Tammy%Hlywka%NULL%1,                          Joanne%Levie%NULL%1,                          Jane%McQueen%NULL%1,                          Stephanie%Smith%NULL%1,                          Lorraine%Moss%NULL%1,                          Andrew%Smith%NULL%1,                          Karen%Green%NULL%0,                          Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                          Altynay%Shigayeva%NULL%1,                          Allison%McGeer%NULL%0,                          Erika%Bontovics%NULL%1,                          Martin%Chapman%NULL%1,                          Denise%Gravel%NULL%1,                          Bonnie%Henry%NULL%0,                          Stephen%Lapinsky%NULL%1,                          Mark%Loeb%NULL%1,                          L. Clifford%McDonald%NULL%0,                          Marianna%Ofner%NULL%0,                          Shirley%Paton%NULL%1,                          Donna%Reynolds%NULL%1,                          Damon%Scales%NULL%1,                          Sandy%Shen%NULL%1,                          Andrew%Simor%NULL%1,                          Thomas%Stewart%NULL%1,                          Mary%Vearncombe%NULL%1,                          Dick%Zoutman%NULL%1,                          Karen%Green%NULL%0,                          Joel Mark%Montgomery%NULL%4,                          Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                          Jaehoon%Oh%NULL%1,                          Tae Ho%Lim%NULL%1,                          Hyunggoo%Kang%NULL%1,                          Yeongtak%Song%NULL%1,                          Sanghyun%Lee%NULL%1,                          Abdelouahab%Bellou.%NULL%2,                          Abdelouahab%Bellou.%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1400,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1384,7 +1432,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1416,7 +1464,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1448,7 +1496,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1480,7 +1528,7 @@
         <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1512,7 +1560,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1544,7 +1592,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1576,7 +1624,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1608,7 +1656,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1640,7 +1688,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>
